--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VITA\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669201B-8547-4372-B295-E7787E2867D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A45370-0238-438C-B90F-692F05CB8FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD1B83A0-DED4-492F-8D25-D1838C2301F7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Database Design</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>orderid</t>
+  </si>
+  <si>
+    <t>configurationtable</t>
+  </si>
+  <si>
+    <t>configid</t>
+  </si>
+  <si>
+    <t>configname</t>
   </si>
 </sst>
 </file>
@@ -846,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61CA335-D8C4-4088-A73B-E282777217A3}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,497 +1479,578 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C52" s="6">
+        <v>50</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="8"/>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="A56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E85" t="s">
         <v>56</v>
       </c>
-      <c r="F79">
+      <c r="F85">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>71</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B90" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B92" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A82:F82"/>
+  <mergeCells count="16">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A75:F75"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A70:F70"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
